--- a/Cowbell/CB_BOM.xlsx
+++ b/Cowbell/CB_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>capacitor, 10µF</t>
   </si>
@@ -71,9 +71,6 @@
     <t>resistor, 33K</t>
   </si>
   <si>
-    <t>resistor, 2.2K</t>
-  </si>
-  <si>
     <t>resistor, 470K</t>
   </si>
   <si>
@@ -279,6 +276,33 @@
   </si>
   <si>
     <t>PDB182-K430K-104A</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Resistor Bag</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>ECE 302 or 303 Lab Kit</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>CB Bag</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -288,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +333,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,7 +375,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -406,9 +447,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G28" totalsRowCount="1">
-  <autoFilter ref="A1:G28"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I28" totalsRowCount="1">
+  <autoFilter ref="A1:I27"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Shematic Reference Number"/>
     <tableColumn id="2" name="Part Description"/>
     <tableColumn id="3" name="Manufacturer Part Number"/>
@@ -419,6 +460,8 @@
       <calculatedColumnFormula>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(G2:G27)</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="4" name="Location"/>
+    <tableColumn id="9" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -687,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,43 +746,49 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="25.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D2" s="3">
         <v>1.19</v>
@@ -754,16 +803,19 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>2.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3">
         <v>0.66</v>
@@ -778,8 +830,11 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>1.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -787,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3">
         <v>1.06</v>
@@ -802,16 +857,19 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>1.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3">
         <v>2.35</v>
@@ -825,16 +883,19 @@
       <c r="G5" s="3">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3">
         <v>2.81</v>
@@ -848,8 +909,11 @@
       <c r="G6" s="3">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -857,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3">
         <v>0.63</v>
@@ -872,8 +936,11 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>0.63</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -881,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3">
         <v>0.72</v>
@@ -896,16 +963,19 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3">
         <v>0.28999999999999998</v>
@@ -920,16 +990,19 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3">
         <v>0.34</v>
@@ -944,13 +1017,16 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -967,13 +1043,16 @@
       <c r="G11" s="3">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -988,13 +1067,16 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1009,16 +1091,19 @@
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3">
         <v>0.63</v>
@@ -1032,39 +1117,45 @@
       <c r="G14" s="3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D16" s="3">
         <v>0.63</v>
@@ -1075,16 +1166,19 @@
       <c r="G16" s="3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3">
         <v>0.63</v>
@@ -1095,16 +1189,19 @@
       <c r="G17" s="3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3">
         <v>0.63</v>
@@ -1115,16 +1212,19 @@
       <c r="G18" s="3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="3">
         <v>0.63</v>
@@ -1135,16 +1235,19 @@
       <c r="G19" s="3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3">
         <v>0.63</v>
@@ -1155,16 +1258,19 @@
       <c r="G20" s="3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3">
         <v>0.63</v>
@@ -1175,16 +1281,19 @@
       <c r="G21" s="3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3">
         <v>0.63</v>
@@ -1195,77 +1304,86 @@
       <c r="G22" s="3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="E23">
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" s="3">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="G23" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7">
         <v>2.81</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="7">
         <f>(Table1[[#This Row],[Quantity Required]]-Table1[[#This Row],[Owned]])*Table1[[#This Row],[Price]]</f>
         <v>5.62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="3">
         <v>0.63</v>
@@ -1278,15 +1396,15 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1299,11 +1417,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
-      <c r="G28" s="5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+      <c r="G28" s="8">
         <f>SUM(G2:G27)</f>
         <v>26.639999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="e">
+        <f>-H2G</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
